--- a/amplify/data/product/local/editor_sticker_local_category.xlsx
+++ b/amplify/data/product/local/editor_sticker_local_category.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,53 +481,43 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 9</t>
+          <t>primaryId</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>注意： 标记的都需要填写，每次更新必须更新的字段</t>
+          <t>coverUrl</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>coverUrl</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
           <t>id</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>updatedAt</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>brasilcarnival_202204</t>
+          <t>subscribe_202204</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>brasilcarnival_202204.png</t>
+          <t>subscribe_202204.png</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>brasilcarnival</t>
+          <t>subscribe</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -535,89 +525,89 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>brasilcarnival_202204</t>
+          <t>subscribe_202204</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>/sticker_tab/brasilcarnival_202204.png</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>bf53e754-cb97-11ec-a604-acde48001122</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2022-05-04 18:48:35</t>
+          <t>sticker_tab/subscribe_202204.png</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/subscribe_202204.png</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>efaa6768-ceb0-11ec-90ec-acde48001122</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>eid_202204</t>
+          <t>appicons_202205</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eid_202204.png</t>
+          <t>appicons_202205.png</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>eid</t>
+          <t>appicons</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>202204</v>
+        <v>202205</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>eid_202204</t>
+          <t>appicons_202205</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>/sticker_tab/eid_202204.png</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>bf53ecae-cb97-11ec-a604-acde48001122</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2022-05-04 18:48:35</t>
+          <t>sticker_tab/appicons_202205.png</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/appicons_202205.png</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>efaa684e-ceb0-11ec-90ec-acde48001122</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ily_202204</t>
+          <t>arrows_202205</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ily_202204.png</t>
+          <t>arrows_202205.png</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -631,59 +621,59 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ily</t>
+          <t>arrows</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>202204</v>
+        <v>202205</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ily_202204</t>
+          <t>arrows_202205</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>/sticker_tab/ily_202204.png</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>bf53ed80-cb97-11ec-a604-acde48001122</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2022-05-04 18:48:35</t>
+          <t>sticker_tab/arrows_202205.png</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/arrows_202205.png</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>efaa6894-ceb0-11ec-90ec-acde48001122</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>like_202204</t>
+          <t>brasilcarnival_202204</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>like_202204.png</t>
+          <t>brasilcarnival_202204.png</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>like</t>
+          <t>brasilcarnival</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -691,129 +681,597 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>like_202204</t>
+          <t>brasilcarnival_202204</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>/sticker_tab/like_202204.png</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>bf53ee20-cb97-11ec-a604-acde48001122</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2022-05-04 18:48:35</t>
+          <t>sticker_tab/brasilcarnival_202204.png</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/brasilcarnival_202204.png</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>efaa68c6-ceb0-11ec-90ec-acde48001122</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>spring_202204</t>
+          <t>easter_202205</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>spring_202204.png</t>
+          <t>easter_202205.png</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>easter</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>202205</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>easter_202205</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>sticker_tab/easter_202205.png</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
         <v>5</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>spring</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>202204</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>spring_202204</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>/sticker_tab/spring_202204.png</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>bf53eec0-cb97-11ec-a604-acde48001122</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2022-05-04 18:48:35</t>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/easter_202205.png</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>efaa68ee-ceb0-11ec-90ec-acde48001122</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>subscribe_202204</t>
+          <t>effects_202205</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>subscribe_202204.png</t>
+          <t>effects_202205.png</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>subscribe</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>202205</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>effects_202205</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>sticker_tab/effects_202205.png</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/effects_202205.png</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>efaa6916-ceb0-11ec-90ec-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>eid_202204</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>eid_202204.png</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>eid</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>202204</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>subscribe_202204</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>/sticker_tab/subscribe_202204.png</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>bf53ef60-cb97-11ec-a604-acde48001122</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2022-05-04 18:48:35</t>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>eid_202204</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>sticker_tab/eid_202204.png</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>7</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/eid_202204.png</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>efaa6948-ceb0-11ec-90ec-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>family_202205</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>family_202205.png</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>202205</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>family_202205</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>sticker_tab/family_202205.png</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>8</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/family_202205.png</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>efaa6970-ceb0-11ec-90ec-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>food_202205</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>food_202205.png</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>202205</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>food_202205</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>sticker_tab/food_202205.png</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>9</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/food_202205.png</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>efaa6998-ceb0-11ec-90ec-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ily_202204</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ily_202204.png</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ily</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ily_202204</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>sticker_tab/ily_202204.png</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/ily_202204.png</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>efaa69ca-ceb0-11ec-90ec-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>like_202204</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>like_202204.png</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>like_202204</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>sticker_tab/like_202204.png</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>11</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/like_202204.png</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>efaa69f2-ceb0-11ec-90ec-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>music_202205</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>music_202205.png</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>music</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>202205</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>music_202205</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>sticker_tab/music_202205.png</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>12</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/music_202205.png</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>efaa6a1a-ceb0-11ec-90ec-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>social_202205</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>social_202205.png</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>social</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>202205</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>social_202205</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>sticker_tab/social_202205.png</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>13</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/social_202205.png</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>efaa6a42-ceb0-11ec-90ec-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>spring_202204</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>spring_202204.png</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>spring_202204</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>sticker_tab/spring_202204.png</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>14</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/spring_202204.png</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>efaa6a6a-ceb0-11ec-90ec-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>weather_202205</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>weather_202205.png</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>weather</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>202205</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>weather_202205</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>sticker_tab/weather_202205.png</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>15</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/weather_202205.png</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>efaa6a92-ceb0-11ec-90ec-acde48001122</t>
         </is>
       </c>
     </row>
